--- a/数据整理/stocks/A股/深证主板/000651-格力电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/000651-格力电器.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44929,7 +44930,6 @@
           <t>华夏新锦升灵活配置混合C</t>
         </is>
       </c>
-      <c r="D626" t="inlineStr"/>
       <c r="E626" t="inlineStr">
         <is>
           <t>63.23</t>
@@ -44961,7 +44961,6 @@
           <t>新疆前海联合泳隆灵活配置混合C</t>
         </is>
       </c>
-      <c r="D627" t="inlineStr"/>
       <c r="E627" t="inlineStr">
         <is>
           <t>87.00</t>
@@ -44993,7 +44992,6 @@
           <t>新疆前海联合润丰灵活配置混合C</t>
         </is>
       </c>
-      <c r="D628" t="inlineStr"/>
       <c r="E628" t="inlineStr">
         <is>
           <t>88.29</t>
@@ -45025,7 +45023,6 @@
           <t>鑫元行业轮动灵活配置混合C</t>
         </is>
       </c>
-      <c r="D629" t="inlineStr"/>
       <c r="E629" t="inlineStr">
         <is>
           <t>89.30</t>
@@ -45057,7 +45054,6 @@
           <t>海富通中证100指数(LOF)C</t>
         </is>
       </c>
-      <c r="D630" t="inlineStr"/>
       <c r="E630" t="inlineStr">
         <is>
           <t>94.06</t>
@@ -45089,7 +45085,6 @@
           <t>招商行业领先混合H</t>
         </is>
       </c>
-      <c r="D631" t="inlineStr"/>
       <c r="E631" t="inlineStr">
         <is>
           <t>86.74</t>
@@ -45121,7 +45116,6 @@
           <t>诺安优势行业灵活配置混合C</t>
         </is>
       </c>
-      <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr">
         <is>
           <t>41.07</t>
@@ -45153,7 +45147,6 @@
           <t>人保行业轮动混合C</t>
         </is>
       </c>
-      <c r="D633" t="inlineStr"/>
       <c r="E633" t="inlineStr">
         <is>
           <t>83.27</t>
@@ -45185,7 +45178,6 @@
           <t>交银稳健配置混合H</t>
         </is>
       </c>
-      <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr">
         <is>
           <t>84.34</t>
@@ -45217,7 +45209,6 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D635" t="inlineStr"/>
       <c r="E635" t="inlineStr">
         <is>
           <t>91.20</t>
@@ -45249,7 +45240,6 @@
           <t>东吴价值成长双动力混合C</t>
         </is>
       </c>
-      <c r="D636" t="inlineStr"/>
       <c r="E636" t="inlineStr">
         <is>
           <t>80.29</t>
@@ -45281,7 +45271,6 @@
           <t>农银消费主题混合H</t>
         </is>
       </c>
-      <c r="D637" t="inlineStr"/>
       <c r="E637" t="inlineStr">
         <is>
           <t>85.88</t>
@@ -45313,7 +45302,6 @@
           <t>招商财经大数据策略股票C</t>
         </is>
       </c>
-      <c r="D638" t="inlineStr"/>
       <c r="E638" t="inlineStr">
         <is>
           <t>81.93</t>
@@ -45345,7 +45333,6 @@
           <t>国联安鑫汇混合C</t>
         </is>
       </c>
-      <c r="D639" t="inlineStr"/>
       <c r="E639" t="inlineStr">
         <is>
           <t>35.39</t>
@@ -45377,7 +45364,6 @@
           <t>光大阳光优选一年持有混合B</t>
         </is>
       </c>
-      <c r="D640" t="inlineStr"/>
       <c r="E640" t="inlineStr">
         <is>
           <t>88.04</t>
@@ -45409,7 +45395,6 @@
           <t>光大阳光优选一年持有混合C</t>
         </is>
       </c>
-      <c r="D641" t="inlineStr"/>
       <c r="E641" t="inlineStr">
         <is>
           <t>88.04</t>
@@ -45425,6 +45410,8868 @@
       </c>
       <c r="H641" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H233"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>52.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>105.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.1866</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159905</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银深证红利ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1214</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0238</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159901</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达深证100ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8813</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>57.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9977</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9225</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3143</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>46.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3093</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3015</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2703</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0928</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>47.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9934</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515650</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9811</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9700</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>43.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7682</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7452</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>55.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6979</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6944</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6644</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6507</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6192</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5310</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4923</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4171</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4142</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3855</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3794</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3650</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3578</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3562</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>59.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3086</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3058</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3043</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2925</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2857</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519116</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浦银安盛沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2482</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>70.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2459</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2458</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159961</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>方正富邦深证100ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2085</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>161812</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华深证100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009940</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>65.29</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>32.78</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>540012</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇丰晋信恒生A股行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>512970</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安中证粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>161227</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞福深证100指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004942</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004943</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>217016</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商深证100指数A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>31.85</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>56.26</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>63.83</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>60.96</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005517</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>000199</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国泰量化策略收益混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001660</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>富安达行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>159976</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>工银瑞信粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>163109</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>申万菱信深证成指（LOF）</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009102</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159903</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>南方深证成份ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>30.24</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>30.24</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>000664</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005397</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>南方安养混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>003848</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>003769</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中银品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001157</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国联安睿祺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>23.85</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>66.27</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>159975</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>招商深证100ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>70.81</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004129</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>34.63</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>515090</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>博时中证可持续发展100ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009116</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>96.53</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>159983</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华夏粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>159984</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>南方粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005373</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>009941</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>159986</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>弘毅远方国证消费100ETF</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>60.96</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>003734</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>万家瑞盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>80.60</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002573</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>建信汇利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>54.69</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>80.60</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009103</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>000056</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>建信消费升级混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>55.05</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>75.17</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>32.58</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>005865</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>浦银安盛量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>004668</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>建信鑫泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>45.75</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>009117</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>96.53</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>159912</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>汇添富深证300ETF</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>159943</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>大成深证成份ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>004669</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>建信鑫泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>45.75</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>003735</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>万家瑞盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>31.85</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>159969</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>银华深证100ETF</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>96.33</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>159970</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>工银瑞信深证100ETF</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>162714</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>广发深证100指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>512150</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>汇安富时中国A50ETF</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>233010</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>大摩深证300指数增强</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>004408</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>招商深证100指数C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>46.21</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>161213</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>国投瑞银中证下游消费与服务产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>23.85</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>740101</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>长安沪深300非周期指数</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>000214</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>广发成长优选混合</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>33.05</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>32.58</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>005518</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>510370</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>兴业沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>广发粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>005374</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>159809</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>博时恒生沪深港通大湾区综合ETF</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>76.33</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>001149</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>汇丰晋信恒生A股行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>005866</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>浦银安盛量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>003849</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>009472</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>广发深证100指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>005405</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>52.51</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>005406</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>52.51</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>004130</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>34.63</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000651-格力电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/000651-格力电器.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54277,4 +54278,4994 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H131"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>102.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0342</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159905</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银深证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1704</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159901</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达深证100ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8670</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1118</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9682</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515650</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9622</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8512</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100038</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>55.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8423</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7764</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7553</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7509</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6398</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5189</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4928</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4265</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3964</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3019</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008592</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2983</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000973</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华增盈回报债券</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>49.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2129</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>71.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159708</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得深证红利交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159961</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>方正富邦深证100ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>162213</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泰达宏利沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008593</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>512970</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安中证粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>540012</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇丰晋信恒生A股行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>161227</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞福深证100指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009940</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>62.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000199</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰量化策略收益混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159716</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝深证创新100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>217016</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商深证100指数A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009116</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>96.06</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001660</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富安达行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008519</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>50.73</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159976</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银瑞信粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159903</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方深证成份ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>163109</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>申万菱信深证成指（LOF）</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>50.73</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003548</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>泰达宏利沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159721</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>永赢深证创新100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004129</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159983</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华夏粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159975</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商深证100ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002573</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>建信汇利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159986</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>弘毅远方国证消费100ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009941</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004942</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>530018</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>建信深证100指数增强</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000056</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>建信消费升级混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159984</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>南方粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009117</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>96.06</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004943</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>159912</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇添富深证300ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>159943</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>大成深证成份ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159969</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>银华深证100ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>96.83</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>162714</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>广发深证100指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>159970</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>工银瑞信深证100ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008520</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>161213</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国投瑞银中证下游消费与服务产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>004408</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>招商深证100指数C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>广发粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001149</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇丰晋信恒生A股行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>67.92</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>62.83</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009472</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>广发深证100指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>67.92</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004130</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000651-格力电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/000651-格力电器.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -59268,4 +59269,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>130</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>232</v>
+      </c>
+      <c r="D3" t="n">
+        <v>54.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>640</v>
+      </c>
+      <c r="D4" t="n">
+        <v>167.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>544</v>
+      </c>
+      <c r="D5" t="n">
+        <v>163.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000651-格力电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/000651-格力电器.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -59277,7 +59278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59288,17 +59289,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -59308,14 +59329,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>130</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.96</v>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>104.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8993</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -59324,14 +59367,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>232</v>
-      </c>
-      <c r="D3" t="n">
-        <v>54.62</v>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8332</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -59340,14 +59405,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>640</v>
-      </c>
-      <c r="D4" t="n">
-        <v>167.57</v>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8050</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -59356,13 +59443,4975 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5778</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159905</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银深证红利ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3302</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3273</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1726</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1646</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9114</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159901</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达深证100ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6933</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5794</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0969</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0691</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515650</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0651</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012483</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0534</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7651</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6390</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007671</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5282</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4592</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4075</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012484</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3691</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3572</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2742</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516130</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2562</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009940</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2476</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2357</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2343</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159716</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝深证创新100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159708</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西部利得深证红利交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159961</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>方正富邦深证100ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>161812</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华深证100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159721</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>永赢深证创新100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>69.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009116</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>162213</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰达宏利沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>512970</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安中证粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.14</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>161227</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞福深证100指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004129</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>217016</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商深证100指数A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004484</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰达宏利业绩驱动量化股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001660</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富安达行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003025</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>新华红利回报混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>31.68</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008519</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>515570</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>山西证券中证红利潜力ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159903</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南方深证成份ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159976</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>工银瑞信粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>163109</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>申万菱信深证成指（LOF）</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159983</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华夏粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159975</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商深证100ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002573</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>建信汇利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>530018</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>建信深证100指数增强</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000056</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>建信消费升级混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005231</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004668</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>建信鑫泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009941</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005232</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009117</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159984</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>南方粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004669</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>建信鑫泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>159912</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇添富深证300ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>159943</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>大成深证成份ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008520</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>162714</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>广发深证100指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007672</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>003548</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>泰达宏利沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159970</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>工银瑞信深证100ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>95.53</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>159969</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>银华深证100ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>004942</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010872</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004408</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>招商深证100指数C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004943</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>广发粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009472</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>广发深证100指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004485</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>泰达宏利业绩驱动量化股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010873</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>004130</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>131</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>130</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>232</v>
+      </c>
+      <c r="D4" t="n">
+        <v>54.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>640</v>
+      </c>
+      <c r="D5" t="n">
+        <v>167.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>544</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>163.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000651-格力电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/000651-格力电器.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -64310,7 +64311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64321,17 +64322,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -64341,14 +64362,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>131</v>
-      </c>
-      <c r="D2" t="n">
-        <v>41.03</v>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9480</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -64357,14 +64400,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>130</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.96</v>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5739</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -64373,14 +64438,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>232</v>
-      </c>
-      <c r="D4" t="n">
-        <v>54.62</v>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5366</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -64389,14 +64476,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>640</v>
-      </c>
-      <c r="D5" t="n">
-        <v>167.57</v>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0307</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -64405,13 +64514,4227 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9367</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159905</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银深证红利ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8847</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5678</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159901</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达深证100ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>66.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4804</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4212</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1347</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0555</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9015</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8543</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515650</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8090</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7017</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4295</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4234</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3038</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2985</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2368</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2106</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>66.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159708</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得深证红利交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159961</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>方正富邦深证100ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>69.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161812</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华深证100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>512970</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安中证粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>516130</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>161227</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞福深证100指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004772</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.48</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009940</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>217016</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商深证100指数A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001660</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富安达行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159716</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝深证创新100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009116</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007671</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159903</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方深证成份ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008519</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>515570</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>山西证券中证红利潜力ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>70.24</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159976</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银瑞信粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>96.41</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>163109</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>申万菱信深证成指（LOF）</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004129</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159721</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>永赢深证创新100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>71.35</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159975</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商深证100ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002573</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>建信汇利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000056</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>建信消费升级混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159984</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南方粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159983</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009941</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159912</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富深证300ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009117</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159943</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>大成深证成份ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008520</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>162714</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>广发深证100指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159970</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银瑞信深证100ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007672</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159969</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>银华深证100ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>96.71</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>233010</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>大摩深证300指数增强</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004942</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004408</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>招商深证100指数C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004944</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004943</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004948</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>广发粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004773</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>20.48</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>004130</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>112</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>131</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>130</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>232</v>
+      </c>
+      <c r="D5" t="n">
+        <v>54.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>640</v>
+      </c>
+      <c r="D6" t="n">
+        <v>167.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>544</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>163.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000651-格力电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/000651-格力电器.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -68617,7 +68618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68628,17 +68629,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -68648,14 +68669,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>112</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.71</v>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2737</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -68664,14 +68707,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>131</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41.03</v>
+          <t>159905</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银深证红利ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0605</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -68680,14 +68745,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>130</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.96</v>
+          <t>560880</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8173</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -68696,14 +68783,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>232</v>
-      </c>
-      <c r="D5" t="n">
-        <v>54.62</v>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5251</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -68712,14 +68821,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>640</v>
-      </c>
-      <c r="D6" t="n">
-        <v>167.57</v>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4833</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -68728,13 +68859,4737 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>159901</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达深证100ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>71.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4680</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4518</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1014</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161604</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通深证100指数A\B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>54.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0750</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515650</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0490</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0276</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9564</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6589</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6178</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4886</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4715</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4538</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014412</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3987</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3714</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3391</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3357</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3170</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2848</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2841</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2604</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008835</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国量化对冲策略三个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014413</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>71.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159708</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得深证红利交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159961</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>方正富邦深证100ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>161812</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华深证100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>516130</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>161227</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞福深证100指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008836</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国量化对冲策略三个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>217016</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商深证100指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>515570</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>山西证券中证红利潜力ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001660</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富安达行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159716</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝深证创新100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007671</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>63.29</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009116</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159903</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方深证成份ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>63.29</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001420</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方大数据300指数A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159976</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银瑞信粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>97.40</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004129</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009940</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>163109</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>申万菱信深证成指（LOF）</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159975</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商深证100ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159721</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>永赢深证创新100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002174</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东方互联网嘉混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002409</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>57.25</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002410</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>57.25</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009117</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159983</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华夏粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009941</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014214</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>159984</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>南方粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159912</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇添富深证300ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159943</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>大成深证成份ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>161612</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>融通深证成份指数A\B</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013074</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>162714</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>广发深证100指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>233010</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>大摩深证300指数增强</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>159969</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>银华深证100ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007672</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159970</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>工银瑞信深证100ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>48.32</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001426</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>南方大数据300指数C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004408</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>招商深证100指数C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004948</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004876</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>融通深证100指数C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004943</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>广发粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004942</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>014215</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009472</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>广发深证100指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>004875</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>融通深证成份指数C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004944</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>004130</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>71.56</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>015177</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>申万菱信深证成指（LOF）C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>126</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>112</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>131</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>130</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>232</v>
+      </c>
+      <c r="D6" t="n">
+        <v>54.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>640</v>
+      </c>
+      <c r="D7" t="n">
+        <v>167.57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>544</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>163.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000651-格力电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/000651-格力电器.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="D2" t="n">
-        <v>30.51</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D3" t="n">
-        <v>30.71</v>
+        <v>30.51</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="D4" t="n">
-        <v>41.03</v>
+        <v>30.71</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D5" t="n">
-        <v>26.96</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>232</v>
+        <v>130</v>
       </c>
       <c r="D6" t="n">
-        <v>54.62</v>
+        <v>26.96</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>640</v>
+        <v>232</v>
       </c>
       <c r="D7" t="n">
-        <v>167.57</v>
+        <v>54.62</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>640</v>
+      </c>
+      <c r="D8" t="n">
+        <v>167.57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>544</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>163.48</v>
       </c>
     </row>
@@ -600,6 +617,8970 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H236"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>14.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2515</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1787</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0487</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9734</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159905</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银深证红利ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6739</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4525</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>560880</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4448</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4269</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3943</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159901</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达深证100ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>59.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3218</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515650</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1242</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161604</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通深证100指数A/B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>46.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0326</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9817</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8402</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8110</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7771</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6722</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6628</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5772</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4373</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4000</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3805</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3754</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3184</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3055</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝消费龙头（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3046</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2842</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2666</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2623</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2563</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>66.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2498</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>561120</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>15.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1929</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝消费龙头（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159708</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西部利得深证红利ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>66.88</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>建信内生动力混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>70.74</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000214</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发成长优选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159961</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>方正富邦深证100ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>76.53</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013334</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华价值远航6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>68.18</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007470</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博道叁佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>161812</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银华深证100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014380</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>515910</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013054</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012394</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>农银中证新华社民族品牌指数</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009955</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>516130</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159730</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时国证龙头家电ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011994</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国联安核心优势混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006341</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007471</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博道叁佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>75.61</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010998</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博道消费智航股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>31.99</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>161227</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞福深证100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002134</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012993</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇添富品牌力一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>561130</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富国中证新华社民族品牌工程ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>217016</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>招商深证100指数A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>515570</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>山西证券中证红利潜力ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159798</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>易方达中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007671</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007448</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159716</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华宝深证创新100ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009116</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007044</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005137</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>512970</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>平安粤港澳大湾区ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>014634</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>景顺长城ESG量化股票A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>工银灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>75.15</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>159903</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>南方深证成份ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>76.53</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>008318</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006342</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009940</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>004129</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>159976</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>工银瑞信湾创ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>016690</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>159975</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>招商深证100ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>163109</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>申万菱信深证成指（LOF）A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>013053</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>159721</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>永赢深证创新100ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>013074</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>002174</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>东方互联网嘉混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>75.61</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>009117</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>159706</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华安深证100ETF</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>159983</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华夏粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>003958</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>009941</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>165806</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>159984</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>南方粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>97.37</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>007045</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>159912</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>汇添富深证300ETF</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>159943</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>大成深证成份ETF</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>003957</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>000992</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>广发对冲套利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>161612</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>融通深证成份指数A/B</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>008137</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>014635</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>景顺长城ESG量化股票C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>007672</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>009669</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>012994</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>汇添富品牌力一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>016313</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>013335</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>鹏华价值远航6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>162714</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>广发深证100指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>159969</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>银华深证100ETF</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>96.38</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>233010</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>大摩深证300指数增强</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>159970</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>工银深证100ETF</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>004408</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>招商深证100指数C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>工银新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>010872</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>005399</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>004876</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>融通深证100指数C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>005280</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>安信稳健阿尔法定开混合A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>35.69</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>004942</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>004943</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>44.26</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>广发湾创100ETF</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>95.90</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>010873</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>016282</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>建信内生动力混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>70.74</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>009472</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>广发深证100指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>004875</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>融通深证成份指数C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>66.07</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>009624</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>安信稳健阿尔法定开混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>35.69</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>015170</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>008077</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>015177</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>申万菱信深证成指（LOF）C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>004130</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>015179</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>015180</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合D</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>015715</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>富国成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>015637</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>016401</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>165810</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数C</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5437,7 +14418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9743,7 +18724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14775,7 +23756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19765,7 +28746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28627,7 +37608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -52891,7 +61872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
